--- a/Code/Results/Cases/Case_5_166/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_166/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9867503102337386</v>
+        <v>1.019430475293696</v>
       </c>
       <c r="D2">
-        <v>1.007036569626241</v>
+        <v>1.024624822111795</v>
       </c>
       <c r="E2">
-        <v>0.9950021603696867</v>
+        <v>1.020565154313159</v>
       </c>
       <c r="F2">
-        <v>0.9953975267180653</v>
+        <v>1.030511454988552</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037528744250499</v>
+        <v>1.028794099063778</v>
       </c>
       <c r="J2">
-        <v>1.00933467062108</v>
+        <v>1.024633284677864</v>
       </c>
       <c r="K2">
-        <v>1.018398736633003</v>
+        <v>1.027452775983998</v>
       </c>
       <c r="L2">
-        <v>1.006531564985546</v>
+        <v>1.023405064274411</v>
       </c>
       <c r="M2">
-        <v>1.006921355905986</v>
+        <v>1.033322254128945</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9912256283013874</v>
+        <v>1.020374550968546</v>
       </c>
       <c r="D3">
-        <v>1.010121292660087</v>
+        <v>1.025290576997821</v>
       </c>
       <c r="E3">
-        <v>0.99855813364826</v>
+        <v>1.021365943612955</v>
       </c>
       <c r="F3">
-        <v>1.000590155256587</v>
+        <v>1.031670877349935</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038516595015787</v>
+        <v>1.028939656907195</v>
       </c>
       <c r="J3">
-        <v>1.011958383554394</v>
+        <v>1.025214140346149</v>
       </c>
       <c r="K3">
-        <v>1.020626287118366</v>
+        <v>1.02792604620203</v>
       </c>
       <c r="L3">
-        <v>1.009209496728548</v>
+        <v>1.024012134932392</v>
       </c>
       <c r="M3">
-        <v>1.011215490501245</v>
+        <v>1.03428910392326</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9940619562663736</v>
+        <v>1.020985824918355</v>
       </c>
       <c r="D4">
-        <v>1.012078545403087</v>
+        <v>1.025721490802771</v>
       </c>
       <c r="E4">
-        <v>1.00081811803051</v>
+        <v>1.021884833328112</v>
       </c>
       <c r="F4">
-        <v>1.003881474633244</v>
+        <v>1.032421622644335</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03913178942554</v>
+        <v>1.029032540051098</v>
       </c>
       <c r="J4">
-        <v>1.01361878723358</v>
+        <v>1.025589802479125</v>
       </c>
       <c r="K4">
-        <v>1.022033346402533</v>
+        <v>1.028231729751108</v>
       </c>
       <c r="L4">
-        <v>1.010906679107221</v>
+        <v>1.024405025861916</v>
       </c>
       <c r="M4">
-        <v>1.013933278326786</v>
+        <v>1.034914670501949</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9952406194242536</v>
+        <v>1.021242898067524</v>
       </c>
       <c r="D5">
-        <v>1.012892377359328</v>
+        <v>1.025902675849082</v>
       </c>
       <c r="E5">
-        <v>1.001758744099745</v>
+        <v>1.022103147084658</v>
       </c>
       <c r="F5">
-        <v>1.005249343094077</v>
+        <v>1.032737360771329</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039384789864535</v>
+        <v>1.029071275866011</v>
       </c>
       <c r="J5">
-        <v>1.014308168598312</v>
+        <v>1.025747684513912</v>
       </c>
       <c r="K5">
-        <v>1.022616891446471</v>
+        <v>1.028360105661419</v>
       </c>
       <c r="L5">
-        <v>1.011611920275036</v>
+        <v>1.024570214453358</v>
       </c>
       <c r="M5">
-        <v>1.015061802241324</v>
+        <v>1.035177646557867</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9954377315784416</v>
+        <v>1.021286067247502</v>
       </c>
       <c r="D6">
-        <v>1.013028503738942</v>
+        <v>1.025933099272853</v>
       </c>
       <c r="E6">
-        <v>1.001916133427796</v>
+        <v>1.02213981300784</v>
       </c>
       <c r="F6">
-        <v>1.00547810540697</v>
+        <v>1.032790381909693</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039426943162252</v>
+        <v>1.029077761456165</v>
       </c>
       <c r="J6">
-        <v>1.014423419280812</v>
+        <v>1.025774190863559</v>
       </c>
       <c r="K6">
-        <v>1.022714409653933</v>
+        <v>1.028381652691359</v>
       </c>
       <c r="L6">
-        <v>1.011729857011743</v>
+        <v>1.02459795133099</v>
       </c>
       <c r="M6">
-        <v>1.015250478086732</v>
+        <v>1.035221800677847</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9940777589032774</v>
+        <v>1.020989259575529</v>
       </c>
       <c r="D7">
-        <v>1.012089454850992</v>
+        <v>1.025723911694316</v>
       </c>
       <c r="E7">
-        <v>1.000830723504019</v>
+        <v>1.021887749770788</v>
       </c>
       <c r="F7">
-        <v>1.003899813434576</v>
+        <v>1.032425841062289</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039135191985178</v>
+        <v>1.029033058868458</v>
       </c>
       <c r="J7">
-        <v>1.013628032417213</v>
+        <v>1.025591912289586</v>
       </c>
       <c r="K7">
-        <v>1.022041174826881</v>
+        <v>1.028233445641745</v>
       </c>
       <c r="L7">
-        <v>1.010916134656279</v>
+        <v>1.024407233053279</v>
       </c>
       <c r="M7">
-        <v>1.013948412190954</v>
+        <v>1.034918184448793</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9882754043629387</v>
+        <v>1.019749448109126</v>
       </c>
       <c r="D8">
-        <v>1.00808726942553</v>
+        <v>1.02484979027708</v>
       </c>
       <c r="E8">
-        <v>0.9962126088432456</v>
+        <v>1.020835633889305</v>
       </c>
       <c r="F8">
-        <v>0.9971670092095651</v>
+        <v>1.030903179197614</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03786763966235</v>
+        <v>1.028843560451348</v>
       </c>
       <c r="J8">
-        <v>1.010229266472155</v>
+        <v>1.024829626520697</v>
       </c>
       <c r="K8">
-        <v>1.01915879662074</v>
+        <v>1.027612834058649</v>
       </c>
       <c r="L8">
-        <v>1.007444128340097</v>
+        <v>1.023610210471685</v>
       </c>
       <c r="M8">
-        <v>1.00838549239992</v>
+        <v>1.033649015758506</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9775706005829601</v>
+        <v>1.01756778961511</v>
       </c>
       <c r="D9">
-        <v>1.000724454197876</v>
+        <v>1.023310495848176</v>
       </c>
       <c r="E9">
-        <v>0.9877451353112106</v>
+        <v>1.018987278934483</v>
       </c>
       <c r="F9">
-        <v>0.9847467504210761</v>
+        <v>1.028224050016764</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035444366925119</v>
+        <v>1.028499683461504</v>
       </c>
       <c r="J9">
-        <v>1.003941042729277</v>
+        <v>1.02348495743812</v>
       </c>
       <c r="K9">
-        <v>1.013805788562971</v>
+        <v>1.026515031778076</v>
       </c>
       <c r="L9">
-        <v>1.001040218402735</v>
+        <v>1.022206371813244</v>
       </c>
       <c r="M9">
-        <v>0.9980922456569062</v>
+        <v>1.031412204358197</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9700743893271021</v>
+        <v>1.01611544009761</v>
       </c>
       <c r="D10">
-        <v>0.9955870397713734</v>
+        <v>1.022285058361629</v>
       </c>
       <c r="E10">
-        <v>0.9818546255234613</v>
+        <v>1.017758880743581</v>
       </c>
       <c r="F10">
-        <v>0.9760471347884597</v>
+        <v>1.026440649275957</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033692653913347</v>
+        <v>1.02826376325615</v>
       </c>
       <c r="J10">
-        <v>0.9995277751867894</v>
+        <v>1.022587598009859</v>
       </c>
       <c r="K10">
-        <v>1.01003643133749</v>
+        <v>1.02578038529293</v>
       </c>
       <c r="L10">
-        <v>0.9965594155468348</v>
+        <v>1.021270944245854</v>
       </c>
       <c r="M10">
-        <v>0.990862765565771</v>
+        <v>1.029920753611832</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.966734192828192</v>
+        <v>1.015487060264338</v>
       </c>
       <c r="D11">
-        <v>0.993303316353958</v>
+        <v>1.021841227850909</v>
       </c>
       <c r="E11">
-        <v>0.9792399645532731</v>
+        <v>1.017227895276424</v>
       </c>
       <c r="F11">
-        <v>0.9721694931388847</v>
+        <v>1.025669052783165</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032899724126949</v>
+        <v>1.02816003061984</v>
       </c>
       <c r="J11">
-        <v>0.9975594765765647</v>
+        <v>1.022198823809673</v>
       </c>
       <c r="K11">
-        <v>1.008352637049734</v>
+        <v>1.025461626382033</v>
       </c>
       <c r="L11">
-        <v>0.9945642994232372</v>
+        <v>1.02086601430635</v>
       </c>
       <c r="M11">
-        <v>0.9876360549069755</v>
+        <v>1.029274882203541</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9654785022966373</v>
+        <v>1.015253727268612</v>
       </c>
       <c r="D12">
-        <v>0.9924456975134829</v>
+        <v>1.02167639928823</v>
       </c>
       <c r="E12">
-        <v>0.9782586115342201</v>
+        <v>1.017030802814988</v>
       </c>
       <c r="F12">
-        <v>0.9707115072697111</v>
+        <v>1.025382541590321</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032599826605877</v>
+        <v>1.028121263062008</v>
       </c>
       <c r="J12">
-        <v>0.9968193014622406</v>
+        <v>1.022054384643775</v>
       </c>
       <c r="K12">
-        <v>1.007719071375514</v>
+        <v>1.025343127929341</v>
       </c>
       <c r="L12">
-        <v>0.9938145420137012</v>
+        <v>1.020715623571476</v>
       </c>
       <c r="M12">
-        <v>0.9864221948113774</v>
+        <v>1.029034967245629</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.965748544596748</v>
+        <v>1.015303774573711</v>
       </c>
       <c r="D13">
-        <v>0.9926300899983879</v>
+        <v>1.021711754204382</v>
       </c>
       <c r="E13">
-        <v>0.9784695834173779</v>
+        <v>1.017073073500944</v>
       </c>
       <c r="F13">
-        <v>0.9710250666858325</v>
+        <v>1.025443994959025</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032664401865861</v>
+        <v>1.028129589536972</v>
       </c>
       <c r="J13">
-        <v>0.9969784891560286</v>
+        <v>1.022085368732402</v>
       </c>
       <c r="K13">
-        <v>1.007855347504912</v>
+        <v>1.025368550635779</v>
       </c>
       <c r="L13">
-        <v>0.9939757677468869</v>
+        <v>1.020747882054983</v>
       </c>
       <c r="M13">
-        <v>0.9866832793520868</v>
+        <v>1.029086430251622</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9666307079078251</v>
+        <v>1.015467771347671</v>
       </c>
       <c r="D14">
-        <v>0.9932326186066105</v>
+        <v>1.021827602454617</v>
       </c>
       <c r="E14">
-        <v>0.9791590559017742</v>
+        <v>1.017211600706394</v>
       </c>
       <c r="F14">
-        <v>0.9720493420315079</v>
+        <v>1.025645367760227</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032875045196122</v>
+        <v>1.028156830906541</v>
       </c>
       <c r="J14">
-        <v>0.997498481032991</v>
+        <v>1.022186885054023</v>
       </c>
       <c r="K14">
-        <v>1.008300434397135</v>
+        <v>1.025451833241345</v>
       </c>
       <c r="L14">
-        <v>0.9945025039853543</v>
+        <v>1.020853582583931</v>
       </c>
       <c r="M14">
-        <v>0.9875360344343929</v>
+        <v>1.029255050953477</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.967172225359216</v>
+        <v>1.015568825161567</v>
       </c>
       <c r="D15">
-        <v>0.9936026044321062</v>
+        <v>1.02189898437645</v>
       </c>
       <c r="E15">
-        <v>0.979582500942957</v>
+        <v>1.017296970365817</v>
       </c>
       <c r="F15">
-        <v>0.9726780598740719</v>
+        <v>1.025769452651867</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033004112073765</v>
+        <v>1.028173583868055</v>
       </c>
       <c r="J15">
-        <v>0.9978176504833206</v>
+        <v>1.022249428507162</v>
       </c>
       <c r="K15">
-        <v>1.008573578312221</v>
+        <v>1.025503133546488</v>
       </c>
       <c r="L15">
-        <v>0.9948258795280678</v>
+        <v>1.020918710613528</v>
       </c>
       <c r="M15">
-        <v>0.9880593889703139</v>
+        <v>1.029358942465372</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.970294011417459</v>
+        <v>1.016157154119393</v>
       </c>
       <c r="D16">
-        <v>0.9957373182532969</v>
+        <v>1.022314518051136</v>
       </c>
       <c r="E16">
-        <v>0.9820267583747071</v>
+        <v>1.017794139958115</v>
       </c>
       <c r="F16">
-        <v>0.9763020634422102</v>
+        <v>1.026491870802102</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033744536331425</v>
+        <v>1.02827061444341</v>
       </c>
       <c r="J16">
-        <v>0.9996571593360717</v>
+        <v>1.022613395271999</v>
       </c>
       <c r="K16">
-        <v>1.010147060169471</v>
+        <v>1.025801526598516</v>
       </c>
       <c r="L16">
-        <v>0.9966906317975338</v>
+        <v>1.021297820631635</v>
       </c>
       <c r="M16">
-        <v>0.9910748118926987</v>
+        <v>1.029963616631343</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9722264168526096</v>
+        <v>1.016526330818536</v>
       </c>
       <c r="D17">
-        <v>0.9970602135240466</v>
+        <v>1.022575223248984</v>
       </c>
       <c r="E17">
-        <v>0.9835424698577923</v>
+        <v>1.018106248146478</v>
       </c>
       <c r="F17">
-        <v>0.9785449762319814</v>
+        <v>1.026945192544524</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034199634138035</v>
+        <v>1.028331057053579</v>
       </c>
       <c r="J17">
-        <v>1.000795380371585</v>
+        <v>1.022841645823865</v>
       </c>
       <c r="K17">
-        <v>1.011119984937365</v>
+        <v>1.025988526629325</v>
       </c>
       <c r="L17">
-        <v>0.9978453465822147</v>
+        <v>1.021535658044133</v>
       </c>
       <c r="M17">
-        <v>0.9929399464839554</v>
+        <v>1.030342895762252</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9733445178845972</v>
+        <v>1.016741713264883</v>
       </c>
       <c r="D18">
-        <v>0.9978261570792171</v>
+        <v>1.02272730649828</v>
       </c>
       <c r="E18">
-        <v>0.9844204184554157</v>
+        <v>1.018288384173789</v>
       </c>
       <c r="F18">
-        <v>0.9798426270204246</v>
+        <v>1.027209668035006</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034461777311411</v>
+        <v>1.028366159961275</v>
       </c>
       <c r="J18">
-        <v>1.001453786459763</v>
+        <v>1.022974760042715</v>
       </c>
       <c r="K18">
-        <v>1.011682519681921</v>
+        <v>1.026097537609986</v>
       </c>
       <c r="L18">
-        <v>0.9985136061899723</v>
+        <v>1.021674395757967</v>
       </c>
       <c r="M18">
-        <v>0.9940186172147573</v>
+        <v>1.03056411674805</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9737242525062352</v>
+        <v>1.016815161224492</v>
       </c>
       <c r="D19">
-        <v>0.9980863739460447</v>
+        <v>1.022779166026578</v>
       </c>
       <c r="E19">
-        <v>0.9847187502748277</v>
+        <v>1.018350502846983</v>
       </c>
       <c r="F19">
-        <v>0.9802833241484002</v>
+        <v>1.027299857626078</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034550606033587</v>
+        <v>1.028378103310754</v>
       </c>
       <c r="J19">
-        <v>1.001677366301258</v>
+        <v>1.023020145059238</v>
       </c>
       <c r="K19">
-        <v>1.011873499745861</v>
+        <v>1.02613469683229</v>
       </c>
       <c r="L19">
-        <v>0.9987405849300784</v>
+        <v>1.02172170360449</v>
       </c>
       <c r="M19">
-        <v>0.9943848750780354</v>
+        <v>1.030639546351381</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9720200287011926</v>
+        <v>1.016486716691413</v>
       </c>
       <c r="D20">
-        <v>0.9969188699238432</v>
+        <v>1.022547250145098</v>
       </c>
       <c r="E20">
-        <v>0.9833804871987829</v>
+        <v>1.018072752719142</v>
       </c>
       <c r="F20">
-        <v>0.9783054367725957</v>
+        <v>1.026896549146336</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03415114994892</v>
+        <v>1.028324587878082</v>
       </c>
       <c r="J20">
-        <v>1.000673831953012</v>
+        <v>1.022817158811775</v>
       </c>
       <c r="K20">
-        <v>1.011016114519769</v>
+        <v>1.025968469803783</v>
       </c>
       <c r="L20">
-        <v>0.9977220043405761</v>
+        <v>1.021510139179011</v>
       </c>
       <c r="M20">
-        <v>0.9927407958946741</v>
+        <v>1.030302203333547</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9663713536292229</v>
+        <v>1.015419476303302</v>
       </c>
       <c r="D21">
-        <v>0.9930554506149715</v>
+        <v>1.021793487198706</v>
       </c>
       <c r="E21">
-        <v>0.9789563081305649</v>
+        <v>1.017170804046079</v>
       </c>
       <c r="F21">
-        <v>0.971748214597206</v>
+        <v>1.025586065893477</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032813165817831</v>
+        <v>1.028148815531463</v>
       </c>
       <c r="J21">
-        <v>0.9973456102959213</v>
+        <v>1.022156991881077</v>
       </c>
       <c r="K21">
-        <v>1.008169594935264</v>
+        <v>1.025427311266754</v>
       </c>
       <c r="L21">
-        <v>0.9943476366182148</v>
+        <v>1.020822455901866</v>
       </c>
       <c r="M21">
-        <v>0.9872853492595132</v>
+        <v>1.029205396623692</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9627326077530908</v>
+        <v>1.014748895588265</v>
       </c>
       <c r="D22">
-        <v>0.9905720674022773</v>
+        <v>1.021319739816483</v>
       </c>
       <c r="E22">
-        <v>0.9761156261257152</v>
+        <v>1.016604518934476</v>
       </c>
       <c r="F22">
-        <v>0.9675226980933451</v>
+        <v>1.024762657387571</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031940756060249</v>
+        <v>1.028036931556465</v>
       </c>
       <c r="J22">
-        <v>0.9952003519250439</v>
+        <v>1.021741739028541</v>
       </c>
       <c r="K22">
-        <v>1.006332636038164</v>
+        <v>1.025086501427516</v>
       </c>
       <c r="L22">
-        <v>0.992175564973161</v>
+        <v>1.020390188251336</v>
       </c>
       <c r="M22">
-        <v>0.9837662100221148</v>
+        <v>1.028515735390592</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9646701339854542</v>
+        <v>1.01510434162464</v>
       </c>
       <c r="D23">
-        <v>0.9918938613771784</v>
+        <v>1.021570865440124</v>
       </c>
       <c r="E23">
-        <v>0.977627307868595</v>
+        <v>1.016904640635637</v>
       </c>
       <c r="F23">
-        <v>0.9697728285589988</v>
+        <v>1.025199110292002</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032406260459082</v>
+        <v>1.028096372998592</v>
       </c>
       <c r="J23">
-        <v>0.9963427455282537</v>
+        <v>1.021961889229142</v>
       </c>
       <c r="K23">
-        <v>1.007311051712674</v>
+        <v>1.025267224182939</v>
       </c>
       <c r="L23">
-        <v>0.9933319589873744</v>
+        <v>1.020619331188763</v>
       </c>
       <c r="M23">
-        <v>0.985640517206012</v>
+        <v>1.028881343113813</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9721133144937157</v>
+        <v>1.016504616462199</v>
       </c>
       <c r="D24">
-        <v>0.9969827545296039</v>
+        <v>1.022559889930168</v>
       </c>
       <c r="E24">
-        <v>0.9834536991266923</v>
+        <v>1.018087887587293</v>
       </c>
       <c r="F24">
-        <v>0.9784137070319926</v>
+        <v>1.026918528816746</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034173068074363</v>
+        <v>1.028327511490457</v>
       </c>
       <c r="J24">
-        <v>1.000728771412166</v>
+        <v>1.022828223501777</v>
       </c>
       <c r="K24">
-        <v>1.011063064378335</v>
+        <v>1.025977532814541</v>
       </c>
       <c r="L24">
-        <v>0.9977777536322644</v>
+        <v>1.021521670021237</v>
       </c>
       <c r="M24">
-        <v>0.9928308119371617</v>
+        <v>1.030320590509234</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9803985979862925</v>
+        <v>1.018131435311792</v>
       </c>
       <c r="D25">
-        <v>1.002666701822349</v>
+        <v>1.023708311985212</v>
       </c>
       <c r="E25">
-        <v>0.9899756158339794</v>
+        <v>1.019464451429344</v>
       </c>
       <c r="F25">
-        <v>0.9880280827469476</v>
+        <v>1.028916195752301</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036094174775243</v>
+        <v>1.028589761200231</v>
       </c>
       <c r="J25">
-        <v>1.005604126047835</v>
+        <v>1.023832750847977</v>
       </c>
       <c r="K25">
-        <v>1.01522376124994</v>
+        <v>1.026799333271335</v>
       </c>
       <c r="L25">
-        <v>1.002731566583038</v>
+        <v>1.022569219482204</v>
       </c>
       <c r="M25">
-        <v>1.000815134506141</v>
+        <v>1.031990517198356</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_166/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_166/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019430475293696</v>
+        <v>0.9867503102337387</v>
       </c>
       <c r="D2">
-        <v>1.024624822111795</v>
+        <v>1.007036569626241</v>
       </c>
       <c r="E2">
-        <v>1.020565154313159</v>
+        <v>0.9950021603696868</v>
       </c>
       <c r="F2">
-        <v>1.030511454988552</v>
+        <v>0.9953975267180654</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028794099063778</v>
+        <v>1.037528744250499</v>
       </c>
       <c r="J2">
-        <v>1.024633284677864</v>
+        <v>1.00933467062108</v>
       </c>
       <c r="K2">
-        <v>1.027452775983998</v>
+        <v>1.018398736633003</v>
       </c>
       <c r="L2">
-        <v>1.023405064274411</v>
+        <v>1.006531564985546</v>
       </c>
       <c r="M2">
-        <v>1.033322254128945</v>
+        <v>1.006921355905986</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020374550968546</v>
+        <v>0.9912256283013882</v>
       </c>
       <c r="D3">
-        <v>1.025290576997821</v>
+        <v>1.010121292660088</v>
       </c>
       <c r="E3">
-        <v>1.021365943612955</v>
+        <v>0.9985581336482604</v>
       </c>
       <c r="F3">
-        <v>1.031670877349935</v>
+        <v>1.000590155256588</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028939656907195</v>
+        <v>1.038516595015788</v>
       </c>
       <c r="J3">
-        <v>1.025214140346149</v>
+        <v>1.011958383554394</v>
       </c>
       <c r="K3">
-        <v>1.02792604620203</v>
+        <v>1.020626287118367</v>
       </c>
       <c r="L3">
-        <v>1.024012134932392</v>
+        <v>1.009209496728548</v>
       </c>
       <c r="M3">
-        <v>1.03428910392326</v>
+        <v>1.011215490501245</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020985824918355</v>
+        <v>0.9940619562663743</v>
       </c>
       <c r="D4">
-        <v>1.025721490802771</v>
+        <v>1.012078545403088</v>
       </c>
       <c r="E4">
-        <v>1.021884833328112</v>
+        <v>1.000818118030511</v>
       </c>
       <c r="F4">
-        <v>1.032421622644335</v>
+        <v>1.003881474633244</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029032540051098</v>
+        <v>1.03913178942554</v>
       </c>
       <c r="J4">
-        <v>1.025589802479125</v>
+        <v>1.01361878723358</v>
       </c>
       <c r="K4">
-        <v>1.028231729751108</v>
+        <v>1.022033346402533</v>
       </c>
       <c r="L4">
-        <v>1.024405025861916</v>
+        <v>1.010906679107222</v>
       </c>
       <c r="M4">
-        <v>1.034914670501949</v>
+        <v>1.013933278326786</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021242898067524</v>
+        <v>0.9952406194242541</v>
       </c>
       <c r="D5">
-        <v>1.025902675849082</v>
+        <v>1.012892377359328</v>
       </c>
       <c r="E5">
-        <v>1.022103147084658</v>
+        <v>1.001758744099746</v>
       </c>
       <c r="F5">
-        <v>1.032737360771329</v>
+        <v>1.005249343094077</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029071275866011</v>
+        <v>1.039384789864535</v>
       </c>
       <c r="J5">
-        <v>1.025747684513912</v>
+        <v>1.014308168598313</v>
       </c>
       <c r="K5">
-        <v>1.028360105661419</v>
+        <v>1.022616891446471</v>
       </c>
       <c r="L5">
-        <v>1.024570214453358</v>
+        <v>1.011611920275037</v>
       </c>
       <c r="M5">
-        <v>1.035177646557867</v>
+        <v>1.015061802241324</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021286067247502</v>
+        <v>0.9954377315784403</v>
       </c>
       <c r="D6">
-        <v>1.025933099272853</v>
+        <v>1.013028503738941</v>
       </c>
       <c r="E6">
-        <v>1.02213981300784</v>
+        <v>1.001916133427795</v>
       </c>
       <c r="F6">
-        <v>1.032790381909693</v>
+        <v>1.005478105406969</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029077761456165</v>
+        <v>1.039426943162252</v>
       </c>
       <c r="J6">
-        <v>1.025774190863559</v>
+        <v>1.01442341928081</v>
       </c>
       <c r="K6">
-        <v>1.028381652691359</v>
+        <v>1.022714409653932</v>
       </c>
       <c r="L6">
-        <v>1.02459795133099</v>
+        <v>1.011729857011741</v>
       </c>
       <c r="M6">
-        <v>1.035221800677847</v>
+        <v>1.015250478086731</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020989259575529</v>
+        <v>0.9940777589032775</v>
       </c>
       <c r="D7">
-        <v>1.025723911694316</v>
+        <v>1.012089454850992</v>
       </c>
       <c r="E7">
-        <v>1.021887749770788</v>
+        <v>1.000830723504019</v>
       </c>
       <c r="F7">
-        <v>1.032425841062289</v>
+        <v>1.003899813434576</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029033058868458</v>
+        <v>1.039135191985178</v>
       </c>
       <c r="J7">
-        <v>1.025591912289586</v>
+        <v>1.013628032417212</v>
       </c>
       <c r="K7">
-        <v>1.028233445641745</v>
+        <v>1.022041174826881</v>
       </c>
       <c r="L7">
-        <v>1.024407233053279</v>
+        <v>1.010916134656279</v>
       </c>
       <c r="M7">
-        <v>1.034918184448793</v>
+        <v>1.013948412190955</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019749448109126</v>
+        <v>0.9882754043629391</v>
       </c>
       <c r="D8">
-        <v>1.02484979027708</v>
+        <v>1.00808726942553</v>
       </c>
       <c r="E8">
-        <v>1.020835633889305</v>
+        <v>0.9962126088432461</v>
       </c>
       <c r="F8">
-        <v>1.030903179197614</v>
+        <v>0.9971670092095657</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028843560451348</v>
+        <v>1.037867639662351</v>
       </c>
       <c r="J8">
-        <v>1.024829626520697</v>
+        <v>1.010229266472155</v>
       </c>
       <c r="K8">
-        <v>1.027612834058649</v>
+        <v>1.01915879662074</v>
       </c>
       <c r="L8">
-        <v>1.023610210471685</v>
+        <v>1.007444128340097</v>
       </c>
       <c r="M8">
-        <v>1.033649015758506</v>
+        <v>1.00838549239992</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01756778961511</v>
+        <v>0.9775706005829597</v>
       </c>
       <c r="D9">
-        <v>1.023310495848176</v>
+        <v>1.000724454197875</v>
       </c>
       <c r="E9">
-        <v>1.018987278934483</v>
+        <v>0.9877451353112103</v>
       </c>
       <c r="F9">
-        <v>1.028224050016764</v>
+        <v>0.9847467504210754</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028499683461504</v>
+        <v>1.035444366925118</v>
       </c>
       <c r="J9">
-        <v>1.02348495743812</v>
+        <v>1.003941042729277</v>
       </c>
       <c r="K9">
-        <v>1.026515031778076</v>
+        <v>1.013805788562971</v>
       </c>
       <c r="L9">
-        <v>1.022206371813244</v>
+        <v>1.001040218402735</v>
       </c>
       <c r="M9">
-        <v>1.031412204358197</v>
+        <v>0.9980922456569057</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01611544009761</v>
+        <v>0.9700743893271012</v>
       </c>
       <c r="D10">
-        <v>1.022285058361629</v>
+        <v>0.9955870397713726</v>
       </c>
       <c r="E10">
-        <v>1.017758880743581</v>
+        <v>0.9818546255234605</v>
       </c>
       <c r="F10">
-        <v>1.026440649275957</v>
+        <v>0.9760471347884591</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02826376325615</v>
+        <v>1.033692653913346</v>
       </c>
       <c r="J10">
-        <v>1.022587598009859</v>
+        <v>0.9995277751867888</v>
       </c>
       <c r="K10">
-        <v>1.02578038529293</v>
+        <v>1.01003643133749</v>
       </c>
       <c r="L10">
-        <v>1.021270944245854</v>
+        <v>0.9965594155468339</v>
       </c>
       <c r="M10">
-        <v>1.029920753611832</v>
+        <v>0.9908627655657704</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015487060264338</v>
+        <v>0.9667341928281932</v>
       </c>
       <c r="D11">
-        <v>1.021841227850909</v>
+        <v>0.9933033163539587</v>
       </c>
       <c r="E11">
-        <v>1.017227895276424</v>
+        <v>0.979239964553274</v>
       </c>
       <c r="F11">
-        <v>1.025669052783165</v>
+        <v>0.9721694931388859</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02816003061984</v>
+        <v>1.03289972412695</v>
       </c>
       <c r="J11">
-        <v>1.022198823809673</v>
+        <v>0.9975594765765659</v>
       </c>
       <c r="K11">
-        <v>1.025461626382033</v>
+        <v>1.008352637049735</v>
       </c>
       <c r="L11">
-        <v>1.02086601430635</v>
+        <v>0.9945642994232382</v>
       </c>
       <c r="M11">
-        <v>1.029274882203541</v>
+        <v>0.9876360549069767</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015253727268612</v>
+        <v>0.965478502296638</v>
       </c>
       <c r="D12">
-        <v>1.02167639928823</v>
+        <v>0.9924456975134835</v>
       </c>
       <c r="E12">
-        <v>1.017030802814988</v>
+        <v>0.9782586115342208</v>
       </c>
       <c r="F12">
-        <v>1.025382541590321</v>
+        <v>0.9707115072697121</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028121263062008</v>
+        <v>1.032599826605877</v>
       </c>
       <c r="J12">
-        <v>1.022054384643775</v>
+        <v>0.9968193014622415</v>
       </c>
       <c r="K12">
-        <v>1.025343127929341</v>
+        <v>1.007719071375514</v>
       </c>
       <c r="L12">
-        <v>1.020715623571476</v>
+        <v>0.9938145420137019</v>
       </c>
       <c r="M12">
-        <v>1.029034967245629</v>
+        <v>0.9864221948113785</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015303774573711</v>
+        <v>0.9657485445967481</v>
       </c>
       <c r="D13">
-        <v>1.021711754204382</v>
+        <v>0.9926300899983882</v>
       </c>
       <c r="E13">
-        <v>1.017073073500944</v>
+        <v>0.9784695834173782</v>
       </c>
       <c r="F13">
-        <v>1.025443994959025</v>
+        <v>0.9710250666858327</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028129589536972</v>
+        <v>1.032664401865861</v>
       </c>
       <c r="J13">
-        <v>1.022085368732402</v>
+        <v>0.9969784891560288</v>
       </c>
       <c r="K13">
-        <v>1.025368550635779</v>
+        <v>1.007855347504912</v>
       </c>
       <c r="L13">
-        <v>1.020747882054983</v>
+        <v>0.9939757677468871</v>
       </c>
       <c r="M13">
-        <v>1.029086430251622</v>
+        <v>0.9866832793520869</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015467771347671</v>
+        <v>0.9666307079078243</v>
       </c>
       <c r="D14">
-        <v>1.021827602454617</v>
+        <v>0.9932326186066098</v>
       </c>
       <c r="E14">
-        <v>1.017211600706394</v>
+        <v>0.9791590559017738</v>
       </c>
       <c r="F14">
-        <v>1.025645367760227</v>
+        <v>0.9720493420315071</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028156830906541</v>
+        <v>1.032875045196122</v>
       </c>
       <c r="J14">
-        <v>1.022186885054023</v>
+        <v>0.9974984810329907</v>
       </c>
       <c r="K14">
-        <v>1.025451833241345</v>
+        <v>1.008300434397135</v>
       </c>
       <c r="L14">
-        <v>1.020853582583931</v>
+        <v>0.9945025039853539</v>
       </c>
       <c r="M14">
-        <v>1.029255050953477</v>
+        <v>0.9875360344343918</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015568825161567</v>
+        <v>0.9671722253592162</v>
       </c>
       <c r="D15">
-        <v>1.02189898437645</v>
+        <v>0.9936026044321064</v>
       </c>
       <c r="E15">
-        <v>1.017296970365817</v>
+        <v>0.979582500942957</v>
       </c>
       <c r="F15">
-        <v>1.025769452651867</v>
+        <v>0.9726780598740716</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028173583868055</v>
+        <v>1.033004112073765</v>
       </c>
       <c r="J15">
-        <v>1.022249428507162</v>
+        <v>0.9978176504833207</v>
       </c>
       <c r="K15">
-        <v>1.025503133546488</v>
+        <v>1.008573578312221</v>
       </c>
       <c r="L15">
-        <v>1.020918710613528</v>
+        <v>0.9948258795280678</v>
       </c>
       <c r="M15">
-        <v>1.029358942465372</v>
+        <v>0.9880593889703136</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016157154119393</v>
+        <v>0.9702940114174597</v>
       </c>
       <c r="D16">
-        <v>1.022314518051136</v>
+        <v>0.9957373182532977</v>
       </c>
       <c r="E16">
-        <v>1.017794139958115</v>
+        <v>0.9820267583747077</v>
       </c>
       <c r="F16">
-        <v>1.026491870802102</v>
+        <v>0.9763020634422108</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02827061444341</v>
+        <v>1.033744536331425</v>
       </c>
       <c r="J16">
-        <v>1.022613395271999</v>
+        <v>0.9996571593360725</v>
       </c>
       <c r="K16">
-        <v>1.025801526598516</v>
+        <v>1.010147060169472</v>
       </c>
       <c r="L16">
-        <v>1.021297820631635</v>
+        <v>0.9966906317975344</v>
       </c>
       <c r="M16">
-        <v>1.029963616631343</v>
+        <v>0.9910748118926995</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016526330818536</v>
+        <v>0.9722264168526097</v>
       </c>
       <c r="D17">
-        <v>1.022575223248984</v>
+        <v>0.9970602135240468</v>
       </c>
       <c r="E17">
-        <v>1.018106248146478</v>
+        <v>0.9835424698577924</v>
       </c>
       <c r="F17">
-        <v>1.026945192544524</v>
+        <v>0.9785449762319818</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028331057053579</v>
+        <v>1.034199634138035</v>
       </c>
       <c r="J17">
-        <v>1.022841645823865</v>
+        <v>1.000795380371585</v>
       </c>
       <c r="K17">
-        <v>1.025988526629325</v>
+        <v>1.011119984937365</v>
       </c>
       <c r="L17">
-        <v>1.021535658044133</v>
+        <v>0.9978453465822151</v>
       </c>
       <c r="M17">
-        <v>1.030342895762252</v>
+        <v>0.9929399464839558</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016741713264883</v>
+        <v>0.9733445178845972</v>
       </c>
       <c r="D18">
-        <v>1.02272730649828</v>
+        <v>0.9978261570792171</v>
       </c>
       <c r="E18">
-        <v>1.018288384173789</v>
+        <v>0.9844204184554157</v>
       </c>
       <c r="F18">
-        <v>1.027209668035006</v>
+        <v>0.979842627020424</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028366159961275</v>
+        <v>1.034461777311411</v>
       </c>
       <c r="J18">
-        <v>1.022974760042715</v>
+        <v>1.001453786459763</v>
       </c>
       <c r="K18">
-        <v>1.026097537609986</v>
+        <v>1.011682519681921</v>
       </c>
       <c r="L18">
-        <v>1.021674395757967</v>
+        <v>0.9985136061899721</v>
       </c>
       <c r="M18">
-        <v>1.03056411674805</v>
+        <v>0.9940186172147569</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016815161224492</v>
+        <v>0.9737242525062352</v>
       </c>
       <c r="D19">
-        <v>1.022779166026578</v>
+        <v>0.9980863739460446</v>
       </c>
       <c r="E19">
-        <v>1.018350502846983</v>
+        <v>0.9847187502748274</v>
       </c>
       <c r="F19">
-        <v>1.027299857626078</v>
+        <v>0.9802833241484001</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028378103310754</v>
+        <v>1.034550606033587</v>
       </c>
       <c r="J19">
-        <v>1.023020145059238</v>
+        <v>1.001677366301258</v>
       </c>
       <c r="K19">
-        <v>1.02613469683229</v>
+        <v>1.011873499745861</v>
       </c>
       <c r="L19">
-        <v>1.02172170360449</v>
+        <v>0.9987405849300784</v>
       </c>
       <c r="M19">
-        <v>1.030639546351381</v>
+        <v>0.9943848750780354</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016486716691413</v>
+        <v>0.9720200287011935</v>
       </c>
       <c r="D20">
-        <v>1.022547250145098</v>
+        <v>0.9969188699238437</v>
       </c>
       <c r="E20">
-        <v>1.018072752719142</v>
+        <v>0.9833804871987835</v>
       </c>
       <c r="F20">
-        <v>1.026896549146336</v>
+        <v>0.9783054367725966</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028324587878082</v>
+        <v>1.03415114994892</v>
       </c>
       <c r="J20">
-        <v>1.022817158811775</v>
+        <v>1.000673831953013</v>
       </c>
       <c r="K20">
-        <v>1.025968469803783</v>
+        <v>1.01101611451977</v>
       </c>
       <c r="L20">
-        <v>1.021510139179011</v>
+        <v>0.9977220043405766</v>
       </c>
       <c r="M20">
-        <v>1.030302203333547</v>
+        <v>0.992740795894675</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015419476303302</v>
+        <v>0.9663713536292237</v>
       </c>
       <c r="D21">
-        <v>1.021793487198706</v>
+        <v>0.9930554506149721</v>
       </c>
       <c r="E21">
-        <v>1.017170804046079</v>
+        <v>0.9789563081305659</v>
       </c>
       <c r="F21">
-        <v>1.025586065893477</v>
+        <v>0.9717482145972067</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028148815531463</v>
+        <v>1.032813165817831</v>
       </c>
       <c r="J21">
-        <v>1.022156991881077</v>
+        <v>0.9973456102959221</v>
       </c>
       <c r="K21">
-        <v>1.025427311266754</v>
+        <v>1.008169594935264</v>
       </c>
       <c r="L21">
-        <v>1.020822455901866</v>
+        <v>0.9943476366182153</v>
       </c>
       <c r="M21">
-        <v>1.029205396623692</v>
+        <v>0.9872853492595137</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014748895588265</v>
+        <v>0.962732607753091</v>
       </c>
       <c r="D22">
-        <v>1.021319739816483</v>
+        <v>0.9905720674022774</v>
       </c>
       <c r="E22">
-        <v>1.016604518934476</v>
+        <v>0.9761156261257153</v>
       </c>
       <c r="F22">
-        <v>1.024762657387571</v>
+        <v>0.9675226980933449</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028036931556465</v>
+        <v>1.031940756060249</v>
       </c>
       <c r="J22">
-        <v>1.021741739028541</v>
+        <v>0.995200351925044</v>
       </c>
       <c r="K22">
-        <v>1.025086501427516</v>
+        <v>1.006332636038164</v>
       </c>
       <c r="L22">
-        <v>1.020390188251336</v>
+        <v>0.9921755649731612</v>
       </c>
       <c r="M22">
-        <v>1.028515735390592</v>
+        <v>0.9837662100221148</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01510434162464</v>
+        <v>0.9646701339854536</v>
       </c>
       <c r="D23">
-        <v>1.021570865440124</v>
+        <v>0.9918938613771785</v>
       </c>
       <c r="E23">
-        <v>1.016904640635637</v>
+        <v>0.9776273078685945</v>
       </c>
       <c r="F23">
-        <v>1.025199110292002</v>
+        <v>0.9697728285589987</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028096372998592</v>
+        <v>1.032406260459082</v>
       </c>
       <c r="J23">
-        <v>1.021961889229142</v>
+        <v>0.9963427455282533</v>
       </c>
       <c r="K23">
-        <v>1.025267224182939</v>
+        <v>1.007311051712674</v>
       </c>
       <c r="L23">
-        <v>1.020619331188763</v>
+        <v>0.9933319589873738</v>
       </c>
       <c r="M23">
-        <v>1.028881343113813</v>
+        <v>0.9856405172060118</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016504616462199</v>
+        <v>0.9721133144937153</v>
       </c>
       <c r="D24">
-        <v>1.022559889930168</v>
+        <v>0.9969827545296031</v>
       </c>
       <c r="E24">
-        <v>1.018087887587293</v>
+        <v>0.9834536991266916</v>
       </c>
       <c r="F24">
-        <v>1.026918528816746</v>
+        <v>0.9784137070319924</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028327511490457</v>
+        <v>1.034173068074363</v>
       </c>
       <c r="J24">
-        <v>1.022828223501777</v>
+        <v>1.000728771412165</v>
       </c>
       <c r="K24">
-        <v>1.025977532814541</v>
+        <v>1.011063064378334</v>
       </c>
       <c r="L24">
-        <v>1.021521670021237</v>
+        <v>0.9977777536322635</v>
       </c>
       <c r="M24">
-        <v>1.030320590509234</v>
+        <v>0.9928308119371616</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018131435311792</v>
+        <v>0.9803985979862924</v>
       </c>
       <c r="D25">
-        <v>1.023708311985212</v>
+        <v>1.002666701822348</v>
       </c>
       <c r="E25">
-        <v>1.019464451429344</v>
+        <v>0.9899756158339792</v>
       </c>
       <c r="F25">
-        <v>1.028916195752301</v>
+        <v>0.9880280827469472</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028589761200231</v>
+        <v>1.036094174775243</v>
       </c>
       <c r="J25">
-        <v>1.023832750847977</v>
+        <v>1.005604126047835</v>
       </c>
       <c r="K25">
-        <v>1.026799333271335</v>
+        <v>1.01522376124994</v>
       </c>
       <c r="L25">
-        <v>1.022569219482204</v>
+        <v>1.002731566583038</v>
       </c>
       <c r="M25">
-        <v>1.031990517198356</v>
+        <v>1.00081513450614</v>
       </c>
     </row>
   </sheetData>
